--- a/excel/data-pemilih.xlsx
+++ b/excel/data-pemilih.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CFCBCD-FE63-476F-9CC0-3239BD393AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>nik</t>
   </si>
@@ -42,28 +43,37 @@
     <t>tps</t>
   </si>
   <si>
-    <t>relawan_id</t>
-  </si>
-  <si>
-    <t>Bagus Untoro</t>
-  </si>
-  <si>
-    <t>desa</t>
-  </si>
-  <si>
-    <t>rtrw</t>
-  </si>
-  <si>
-    <t>Satu</t>
-  </si>
-  <si>
-    <t>satu</t>
+    <t>Mang Yayan</t>
+  </si>
+  <si>
+    <t>Jl. Raya Ciboleger</t>
+  </si>
+  <si>
+    <t>Kabupaten Lebak</t>
+  </si>
+  <si>
+    <t>Kec. Leuwidamar</t>
+  </si>
+  <si>
+    <t>Cisimeut</t>
+  </si>
+  <si>
+    <t>RT 09/RW 09</t>
+  </si>
+  <si>
+    <t>TPS 01</t>
+  </si>
+  <si>
+    <t>Mang Ucup</t>
+  </si>
+  <si>
+    <t>Mang Asep</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -81,7 +91,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -89,12 +99,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -105,14 +131,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -150,7 +179,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -222,7 +251,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -395,11 +424,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,94 +437,110 @@
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>3602</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>123</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3603</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3604</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -504,7 +549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -516,7 +561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
